--- a/datos_dropcontrol/2025-08-09.xlsx
+++ b/datos_dropcontrol/2025-08-09.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45878.04184610098</v>
+        <v>45878.04184609954</v>
       </c>
       <c r="B2" t="n">
         <v>2025</v>
@@ -522,6 +522,42 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>01:00:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45878.08351149064</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>91.53</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>02:00:15</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-09.xlsx
+++ b/datos_dropcontrol/2025-08-09.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45878.08351149064</v>
+        <v>45878.08351149305</v>
       </c>
       <c r="B3" t="n">
         <v>2025</v>
@@ -558,6 +558,42 @@
       <c r="J3" t="inlineStr">
         <is>
           <t>02:00:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45878.12517276972</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="E4" t="n">
+        <v>91.91</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NNW</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>03:00:14</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-09.xlsx
+++ b/datos_dropcontrol/2025-08-09.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,7 +563,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45878.12517276972</v>
+        <v>45878.1251727662</v>
       </c>
       <c r="B4" t="n">
         <v>2025</v>
@@ -594,6 +594,42 @@
       <c r="J4" t="inlineStr">
         <is>
           <t>03:00:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45878.16685479179</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>92.28</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>04:00:16</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-09.xlsx
+++ b/datos_dropcontrol/2025-08-09.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,7 +599,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45878.16685479179</v>
+        <v>45878.16685479166</v>
       </c>
       <c r="B5" t="n">
         <v>2025</v>
@@ -630,6 +630,42 @@
       <c r="J5" t="inlineStr">
         <is>
           <t>04:00:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45878.2085045788</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C6" t="n">
+        <v>37</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="E6" t="n">
+        <v>92.56</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>05:00:14</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-09.xlsx
+++ b/datos_dropcontrol/2025-08-09.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,7 +635,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45878.2085045788</v>
+        <v>45878.20850458333</v>
       </c>
       <c r="B6" t="n">
         <v>2025</v>
@@ -666,6 +666,42 @@
       <c r="J6" t="inlineStr">
         <is>
           <t>05:00:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45878.25014258089</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C7" t="n">
+        <v>37</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="E7" t="n">
+        <v>92.65000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>WNW</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>06:00:12</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-09.xlsx
+++ b/datos_dropcontrol/2025-08-09.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -671,7 +671,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45878.25014258089</v>
+        <v>45878.25014258102</v>
       </c>
       <c r="B7" t="n">
         <v>2025</v>
@@ -702,6 +702,42 @@
       <c r="J7" t="inlineStr">
         <is>
           <t>06:00:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45878.29184623543</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C8" t="n">
+        <v>37</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.56</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>WNW</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>07:00:15</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-09.xlsx
+++ b/datos_dropcontrol/2025-08-09.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,7 +707,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45878.29184623543</v>
+        <v>45878.29184623843</v>
       </c>
       <c r="B8" t="n">
         <v>2025</v>
@@ -738,6 +738,42 @@
       <c r="J8" t="inlineStr">
         <is>
           <t>07:00:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45878.33351998493</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C9" t="n">
+        <v>37</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="E9" t="n">
+        <v>92.75</v>
+      </c>
+      <c r="F9" t="n">
+        <v>77.34</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>08:00:16</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-09.xlsx
+++ b/datos_dropcontrol/2025-08-09.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -743,7 +743,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45878.33351998493</v>
+        <v>45878.33351998842</v>
       </c>
       <c r="B9" t="n">
         <v>2025</v>
@@ -774,6 +774,42 @@
       <c r="J9" t="inlineStr">
         <is>
           <t>08:00:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45878.37517072909</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C10" t="n">
+        <v>37</v>
+      </c>
+      <c r="D10" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="E10" t="n">
+        <v>92.75</v>
+      </c>
+      <c r="F10" t="n">
+        <v>161.72</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>09:00:14</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-09.xlsx
+++ b/datos_dropcontrol/2025-08-09.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,7 +779,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45878.37517072909</v>
+        <v>45878.37517072917</v>
       </c>
       <c r="B10" t="n">
         <v>2025</v>
@@ -810,6 +810,42 @@
       <c r="J10" t="inlineStr">
         <is>
           <t>09:00:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45878.45849049932</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C11" t="n">
+        <v>37</v>
+      </c>
+      <c r="D11" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="E11" t="n">
+        <v>85.83</v>
+      </c>
+      <c r="F11" t="n">
+        <v>671.48</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16.77</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>11:00:13</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-09.xlsx
+++ b/datos_dropcontrol/2025-08-09.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,7 +815,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45878.45849049932</v>
+        <v>45878.45849049769</v>
       </c>
       <c r="B11" t="n">
         <v>2025</v>
@@ -846,6 +846,42 @@
       <c r="J11" t="inlineStr">
         <is>
           <t>11:00:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45878.50017998619</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C12" t="n">
+        <v>37</v>
+      </c>
+      <c r="D12" t="n">
+        <v>16.78</v>
+      </c>
+      <c r="E12" t="n">
+        <v>83.87</v>
+      </c>
+      <c r="F12" t="n">
+        <v>493.95</v>
+      </c>
+      <c r="G12" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>12:00:15</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-09.xlsx
+++ b/datos_dropcontrol/2025-08-09.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -851,7 +851,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45878.50017998619</v>
+        <v>45878.50017998843</v>
       </c>
       <c r="B12" t="n">
         <v>2025</v>
@@ -882,6 +882,42 @@
       <c r="J12" t="inlineStr">
         <is>
           <t>12:00:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45878.54183790438</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C13" t="n">
+        <v>37</v>
+      </c>
+      <c r="D13" t="n">
+        <v>17.33</v>
+      </c>
+      <c r="E13" t="n">
+        <v>82.66</v>
+      </c>
+      <c r="F13" t="n">
+        <v>615.23</v>
+      </c>
+      <c r="G13" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>13:00:14</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-09.xlsx
+++ b/datos_dropcontrol/2025-08-09.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,7 +887,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45878.54183790438</v>
+        <v>45878.54183790509</v>
       </c>
       <c r="B13" t="n">
         <v>2025</v>
@@ -918,6 +918,42 @@
       <c r="J13" t="inlineStr">
         <is>
           <t>13:00:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45878.58356094634</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C14" t="n">
+        <v>37</v>
+      </c>
+      <c r="D14" t="n">
+        <v>18.94</v>
+      </c>
+      <c r="E14" t="n">
+        <v>77.43000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>94.92</v>
+      </c>
+      <c r="G14" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>14:00:19</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-09.xlsx
+++ b/datos_dropcontrol/2025-08-09.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -923,7 +923,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45878.58356094634</v>
+        <v>45878.58356094908</v>
       </c>
       <c r="B14" t="n">
         <v>2025</v>
@@ -954,6 +954,42 @@
       <c r="J14" t="inlineStr">
         <is>
           <t>14:00:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45878.62517811374</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C15" t="n">
+        <v>37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>20.11</v>
+      </c>
+      <c r="E15" t="n">
+        <v>74.53</v>
+      </c>
+      <c r="F15" t="n">
+        <v>446.48</v>
+      </c>
+      <c r="G15" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>15:00:15</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-09.xlsx
+++ b/datos_dropcontrol/2025-08-09.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -959,7 +959,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45878.62517811374</v>
+        <v>45878.62517811343</v>
       </c>
       <c r="B15" t="n">
         <v>2025</v>
@@ -990,6 +990,42 @@
       <c r="J15" t="inlineStr">
         <is>
           <t>15:00:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45878.66688301708</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="E16" t="n">
+        <v>78.92</v>
+      </c>
+      <c r="F16" t="n">
+        <v>293.55</v>
+      </c>
+      <c r="G16" t="n">
+        <v>17.36</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>16:00:18</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-09.xlsx
+++ b/datos_dropcontrol/2025-08-09.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -995,7 +995,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45878.66688301708</v>
+        <v>45878.66688302084</v>
       </c>
       <c r="B16" t="n">
         <v>2025</v>
@@ -1026,6 +1026,42 @@
       <c r="J16" t="inlineStr">
         <is>
           <t>16:00:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45878.70853278026</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C17" t="n">
+        <v>37</v>
+      </c>
+      <c r="D17" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="E17" t="n">
+        <v>80.23</v>
+      </c>
+      <c r="F17" t="n">
+        <v>138.87</v>
+      </c>
+      <c r="G17" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
